--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -48,16 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -433,68 +433,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>Property</t>
   </si>
@@ -54,54 +54,57 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI)</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>投与ラインのコードシステム例</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2022-09-26</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI)</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>投与ラインのコードシステム例</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Case Sensitive</t>
-  </si>
-  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationRequestDosageInstructionLine_VS</t>
-  </si>
-  <si>
     <t>Hierarchy</t>
   </si>
   <si>
@@ -114,7 +117,7 @@
     <t>Content</t>
   </si>
   <si>
-    <t>complete</t>
+    <t>fragment</t>
   </si>
   <si>
     <t>Supplements</t>
@@ -123,118 +126,118 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>末梢ルート</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>CVルート白</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>ダブルルーメン白</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>ダブルルーメン青</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>トリプルルーメン白</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>トリプルルーメン青</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>トリプルルーメン緑</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>スワンガンツー白</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>スワンガンツー青</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>スワンガンツー黄</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ダブルルーメンカテ（HD)青</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ダブルルーメンカテ（HD)赤</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>透析回路</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>硬膜外</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>動脈ライン</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>埋込型ｶﾃｰﾃﾙﾙｰﾄ</t>
+  </si>
+  <si>
     <t>17</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>末梢ルート</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>CVルート白</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>ダブルルーメン白</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>ダブルルーメン青</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>トリプルルーメン白</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>トリプルルーメン青</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>トリプルルーメン緑</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>スワンガンツー白</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>スワンガンツー青</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>スワンガンツー黄</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>ダブルルーメンカテ（HD)青</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ダブルルーメンカテ（HD)赤</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>透析回路</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>硬膜外</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>動脈ライン</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>埋込型ｶﾃｰﾃﾙﾙｰﾄ</t>
   </si>
   <si>
     <t>その他</t>
@@ -488,64 +491,60 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>36</v>
       </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -771,10 +770,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-example-line-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
